--- a/va_facility_data_2025-02-20/Cut Bank VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Cut%20Bank%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Cut Bank VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Cut%20Bank%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rc347e076f0cc48da959376e9cfdc82b6"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R893f6cb983634d8b8fab7541f491f8bc"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R8f35b10c1d064595b6dc4f014bd175ac"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rb28014cf55da4edaa8bbbe7037ba4360"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Raa1d56553d6e473c845dba23cf9cede0"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R0cf3e0ad9ecb47e5be0b0727762ac502"/>
   </x:sheets>
 </x:workbook>
 </file>
